--- a/documentation-generator/vocab_csv/dpv-tech.xlsx
+++ b/documentation-generator/vocab_csv/dpv-tech.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="297">
   <si>
     <t>Term</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Definition</t>
   </si>
   <si>
     <t>ParentTerm</t>
@@ -49,7 +49,7 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>Usage</t>
   </si>
   <si>
     <t>Source</t>
@@ -103,72 +103,72 @@
     <t>Technology that uses or interacts with data</t>
   </si>
   <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2022/06/15-dpvcg-minutes.html</t>
+  </si>
+  <si>
+    <t>OperationalTechnology</t>
+  </si>
+  <si>
+    <t>Operational Technology</t>
+  </si>
+  <si>
+    <t>Technology that enables or performs or executes operations and processes</t>
+  </si>
+  <si>
+    <t>SecurityTechnology</t>
+  </si>
+  <si>
+    <t>Security Technology</t>
+  </si>
+  <si>
+    <t>Technology that enables or provides security</t>
+  </si>
+  <si>
+    <t>ManagementTechnology</t>
+  </si>
+  <si>
+    <t>Management Technology</t>
+  </si>
+  <si>
+    <t>Technology that enables or provides management</t>
+  </si>
+  <si>
+    <t>IdentityTechnology</t>
+  </si>
+  <si>
+    <t>Identity Technology</t>
+  </si>
+  <si>
+    <t>Technology related to identity or identifiers</t>
+  </si>
+  <si>
+    <t>SurveillanceTechnology</t>
+  </si>
+  <si>
+    <t>Surveillance Technology</t>
+  </si>
+  <si>
+    <t>Technology related to surveillance of individuals or people</t>
+  </si>
+  <si>
+    <t>TechnologyProvisionMethod</t>
+  </si>
+  <si>
+    <t>Technology Provision Method</t>
+  </si>
+  <si>
+    <t>Method associated with provision or use of technology</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>accepted</t>
-  </si>
-  <si>
-    <t>Harshvardhan J. Pandit</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2022/06/15-dpvcg-minutes.html</t>
-  </si>
-  <si>
-    <t>OperationalTechnology</t>
-  </si>
-  <si>
-    <t>Operational Technology</t>
-  </si>
-  <si>
-    <t>Technology that enables or performs or executes operations and processes</t>
-  </si>
-  <si>
-    <t>SecurityTechnology</t>
-  </si>
-  <si>
-    <t>Security Technology</t>
-  </si>
-  <si>
-    <t>Technology that enables or provides security</t>
-  </si>
-  <si>
-    <t>ManagementTechnology</t>
-  </si>
-  <si>
-    <t>Management Technology</t>
-  </si>
-  <si>
-    <t>Technology that enables or provides management</t>
-  </si>
-  <si>
-    <t>IdentityTechnology</t>
-  </si>
-  <si>
-    <t>Identity Technology</t>
-  </si>
-  <si>
-    <t>Technology related to identity or identifiers</t>
-  </si>
-  <si>
-    <t>SurveillanceTechnology</t>
-  </si>
-  <si>
-    <t>Surveillance Technology</t>
-  </si>
-  <si>
-    <t>Technology related to surveillance of individuals or people</t>
-  </si>
-  <si>
-    <t>TechnologyProvisionMethod</t>
-  </si>
-  <si>
-    <t>Technology Provision Method</t>
-  </si>
-  <si>
-    <t>Method associated with provision or use of technology</t>
-  </si>
-  <si>
     <t>TechnologyActor</t>
   </si>
   <si>
@@ -235,9 +235,6 @@
     <t>dpv-tech:CommunicationMechanism</t>
   </si>
   <si>
-    <t>changed</t>
-  </si>
-  <si>
     <t>hasTRL</t>
   </si>
   <si>
@@ -541,9 +538,6 @@
     <t>dpv-tech:TechnologyProvisionMethod</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Subscription</t>
   </si>
   <si>
@@ -760,16 +754,19 @@
     <t>How technology communicates</t>
   </si>
   <si>
-    <t>Networking</t>
+    <t>NetworkingCommunication</t>
+  </si>
+  <si>
+    <t>Networking Communication</t>
   </si>
   <si>
     <t>Technology utilising networking communication</t>
   </si>
   <si>
-    <t>LocalNetwork</t>
-  </si>
-  <si>
-    <t>Local Network</t>
+    <t>LocalNetworkCommunication</t>
+  </si>
+  <si>
+    <t>Local Network Communication</t>
   </si>
   <si>
     <t>Technology utilising local networking communication</t>
@@ -778,34 +775,46 @@
     <t>dpv-tech:Networking</t>
   </si>
   <si>
-    <t>Internet</t>
+    <t>InternetCommunication</t>
+  </si>
+  <si>
+    <t>Internet Communication</t>
   </si>
   <si>
     <t>Technology utilising internet communication</t>
   </si>
   <si>
-    <t>WiFi</t>
+    <t>WiFiCommunication</t>
+  </si>
+  <si>
+    <t>WiFi Communication</t>
   </si>
   <si>
     <t>Technology utilising wifi wireless networking communication</t>
   </si>
   <si>
-    <t>Bluetooth</t>
+    <t>BluetoothCommunication</t>
+  </si>
+  <si>
+    <t>Bluetooth Communication</t>
   </si>
   <si>
     <t>Technology utilising bluetooth communication</t>
   </si>
   <si>
-    <t>CellularNetwork</t>
-  </si>
-  <si>
-    <t>Cellular Network</t>
+    <t>CellularNetworkCommunication</t>
+  </si>
+  <si>
+    <t>Cellular Network Communication</t>
   </si>
   <si>
     <t>Technology utilising cellular networking communication</t>
   </si>
   <si>
-    <t>GPS</t>
+    <t>GPSCommunication</t>
+  </si>
+  <si>
+    <t>GPS Communication</t>
   </si>
   <si>
     <t>Technology utilising GPS communication</t>
@@ -1081,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1136,6 +1145,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1624,11 +1636,9 @@
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1640,13 +1650,13 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1666,19 +1676,17 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1690,13 +1698,13 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1716,19 +1724,17 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1740,13 +1746,13 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1766,19 +1772,17 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1790,13 +1794,13 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -1816,19 +1820,17 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1840,13 +1842,13 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1866,19 +1868,17 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1890,13 +1890,13 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="O12" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1916,19 +1916,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1940,13 +1940,13 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1978,7 +1978,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1990,13 +1990,13 @@
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="O14" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2024,11 +2024,9 @@
       <c r="C15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2040,13 +2038,13 @@
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="O15" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2078,7 +2076,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -2090,13 +2088,13 @@
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="O16" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -2125,10 +2123,10 @@
         <v>61</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -2140,13 +2138,13 @@
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="O17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2266,28 +2264,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>227</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>229</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>230</v>
+      <c r="E2" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+        <v>229</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="28"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="8">
         <v>44744.0</v>
       </c>
@@ -2295,51 +2293,51 @@
         <v>44855.0</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
     </row>
     <row r="3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>235</v>
+      <c r="E3" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+        <v>229</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="28"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="8">
         <v>44744.0</v>
       </c>
@@ -2347,51 +2345,51 @@
         <v>44855.0</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>236</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>238</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>239</v>
+      <c r="E4" s="28" t="s">
+        <v>237</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+        <v>229</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="28"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="8">
         <v>44744.0</v>
       </c>
@@ -2399,51 +2397,51 @@
         <v>44855.0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>240</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>242</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>243</v>
+      <c r="E5" s="28" t="s">
+        <v>241</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+        <v>229</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="28"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="8">
         <v>44744.0</v>
       </c>
@@ -2451,27 +2449,27 @@
         <v>44855.0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
     </row>
     <row r="6">
       <c r="B6" s="16"/>
@@ -2503,7 +2501,7 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="6"/>
     </row>
@@ -2622,10 +2620,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2640,19 +2638,17 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="22" t="s">
         <v>69</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2662,15 +2658,17 @@
       <c r="K4" s="8">
         <v>44727.0</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="8">
+        <v>45229.0</v>
+      </c>
       <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -2690,19 +2688,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>26</v>
+      <c r="E5" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2712,15 +2710,17 @@
       <c r="K5" s="8">
         <v>44727.0</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="8">
+        <v>45230.0</v>
+      </c>
       <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>251</v>
@@ -2749,10 +2749,10 @@
         <v>252</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>249</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2762,15 +2762,17 @@
       <c r="K6" s="8">
         <v>44727.0</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="8">
+        <v>45231.0</v>
+      </c>
       <c r="M6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -2793,16 +2795,16 @@
         <v>253</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>249</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2812,15 +2814,17 @@
       <c r="K7" s="8">
         <v>44727.0</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="8">
+        <v>45232.0</v>
+      </c>
       <c r="M7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -2840,19 +2844,19 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>249</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -2862,15 +2866,17 @@
       <c r="K8" s="8">
         <v>44727.0</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="8">
+        <v>45233.0</v>
+      </c>
       <c r="M8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -2890,19 +2896,19 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>249</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2912,15 +2918,17 @@
       <c r="K9" s="8">
         <v>44727.0</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="8">
+        <v>45234.0</v>
+      </c>
       <c r="M9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -2940,19 +2948,17 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="22" t="s">
         <v>69</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2962,15 +2968,17 @@
       <c r="K10" s="8">
         <v>44727.0</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="8">
+        <v>45235.0</v>
+      </c>
       <c r="M10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -3091,31 +3099,31 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="32"/>
+      <c r="A2" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="33"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>265</v>
+      <c r="A3" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>268</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -3127,13 +3135,13 @@
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -3152,20 +3160,20 @@
       <c r="AD3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>268</v>
+      <c r="A4" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>271</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3177,13 +3185,13 @@
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -3202,20 +3210,20 @@
       <c r="AD4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>265</v>
+      <c r="A5" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>268</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3227,13 +3235,13 @@
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -3252,20 +3260,20 @@
       <c r="AD5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="34" t="s">
+      <c r="A6" s="34" t="s">
         <v>275</v>
       </c>
+      <c r="B6" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>278</v>
+      </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3277,13 +3285,13 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -3302,20 +3310,20 @@
       <c r="AD6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>279</v>
       </c>
+      <c r="B7" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>282</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -3327,13 +3335,13 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -3352,20 +3360,20 @@
       <c r="AD7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>283</v>
       </c>
+      <c r="B8" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>286</v>
+      </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -3377,13 +3385,13 @@
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -3402,20 +3410,20 @@
       <c r="AD8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="A9" s="34" t="s">
         <v>287</v>
       </c>
+      <c r="B9" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>290</v>
+      </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3427,13 +3435,13 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -3555,27 +3563,27 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="J2" s="37" t="s">
-        <v>289</v>
+      <c r="J2" s="38" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>291</v>
+        <v>293</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>293</v>
+        <v>295</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="6">
@@ -3664,23 +3672,23 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="D27" s="21"/>
+      <c r="D27" s="22"/>
       <c r="K27" s="8"/>
     </row>
     <row r="28">
-      <c r="D28" s="21"/>
+      <c r="D28" s="22"/>
       <c r="K28" s="8"/>
     </row>
     <row r="29">
-      <c r="D29" s="21"/>
+      <c r="D29" s="22"/>
       <c r="K29" s="8"/>
     </row>
     <row r="30">
-      <c r="D30" s="21"/>
+      <c r="D30" s="22"/>
       <c r="K30" s="8"/>
     </row>
     <row r="31">
-      <c r="D31" s="21"/>
+      <c r="D31" s="22"/>
       <c r="K31" s="8"/>
     </row>
     <row r="32">
@@ -3691,30 +3699,30 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="22"/>
+      <c r="L33" s="23"/>
       <c r="M33" s="5"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
     </row>
     <row r="34">
       <c r="K34" s="8"/>
@@ -3795,23 +3803,23 @@
       <c r="K57" s="8"/>
     </row>
     <row r="58">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
       <c r="K58" s="8"/>
     </row>
     <row r="59">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
       <c r="K59" s="8"/>
     </row>
     <row r="60">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
       <c r="K60" s="8"/>
     </row>
     <row r="61">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
       <c r="K61" s="8"/>
     </row>
     <row r="62">
@@ -3868,30 +3876,30 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
       <c r="K77" s="8"/>
-      <c r="L77" s="22"/>
+      <c r="L77" s="23"/>
       <c r="M77" s="5"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="22"/>
-      <c r="U77" s="22"/>
-      <c r="V77" s="22"/>
-      <c r="W77" s="22"/>
-      <c r="X77" s="22"/>
-      <c r="Y77" s="22"/>
-      <c r="Z77" s="22"/>
-      <c r="AA77" s="22"/>
-      <c r="AB77" s="22"/>
-      <c r="AC77" s="22"/>
-      <c r="AD77" s="22"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="23"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="23"/>
+      <c r="AD77" s="23"/>
     </row>
     <row r="78">
       <c r="K78" s="8"/>
@@ -3900,59 +3908,59 @@
       <c r="K79" s="8"/>
     </row>
     <row r="80">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="32"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="33"/>
       <c r="K80" s="8"/>
     </row>
     <row r="81">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="34"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="35"/>
       <c r="K81" s="8"/>
     </row>
     <row r="82">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="34"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
       <c r="K82" s="8"/>
     </row>
     <row r="83">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="34"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="35"/>
       <c r="K83" s="8"/>
     </row>
     <row r="84">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="34"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="35"/>
       <c r="K84" s="8"/>
     </row>
     <row r="85">
-      <c r="A85" s="35"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="34"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="35"/>
       <c r="K85" s="8"/>
     </row>
     <row r="86">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="36"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="37"/>
       <c r="K86" s="8"/>
     </row>
     <row r="87">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="34"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="35"/>
       <c r="K87" s="8"/>
     </row>
   </sheetData>
@@ -4091,13 +4099,13 @@
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -4115,19 +4123,19 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>21</v>
@@ -4141,13 +4149,13 @@
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="6" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -4165,19 +4173,19 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -4191,10 +4199,10 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -4236,7 +4244,7 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="6"/>
     </row>
@@ -4388,29 +4396,29 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -4422,13 +4430,13 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -4449,19 +4457,19 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4473,13 +4481,13 @@
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -4500,19 +4508,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4524,13 +4532,13 @@
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -4551,19 +4559,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4575,13 +4583,13 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -4602,19 +4610,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4626,13 +4634,13 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -4653,19 +4661,19 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4677,13 +4685,13 @@
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -4704,19 +4712,19 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4728,13 +4736,13 @@
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -4755,19 +4763,19 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4779,13 +4787,13 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -4806,19 +4814,19 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -4830,13 +4838,13 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -4857,19 +4865,19 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -4881,13 +4889,13 @@
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="O12" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -4908,19 +4916,19 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -4932,13 +4940,13 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -4959,48 +4967,50 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="17" t="s">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AE150">
@@ -5110,31 +5120,31 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="K2" s="8"/>
       <c r="M2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>126</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -5146,13 +5156,13 @@
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -5172,19 +5182,19 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>126</v>
+      <c r="D4" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -5196,13 +5206,13 @@
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -5222,19 +5232,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>126</v>
+      <c r="D5" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -5246,13 +5256,13 @@
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -5272,19 +5282,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>126</v>
+      <c r="D6" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -5296,13 +5306,13 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -5421,53 +5431,53 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="22"/>
+      <c r="L2" s="23"/>
       <c r="M2" s="5"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -5479,13 +5489,13 @@
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -5505,19 +5515,19 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -5529,13 +5539,13 @@
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -5555,19 +5565,19 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -5579,13 +5589,13 @@
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -5605,19 +5615,19 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -5629,13 +5639,13 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -5655,19 +5665,19 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -5679,13 +5689,13 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -5705,19 +5715,19 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -5729,13 +5739,13 @@
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -5856,34 +5866,34 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8">
@@ -5891,13 +5901,13 @@
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -5917,25 +5927,25 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8">
@@ -5943,13 +5953,13 @@
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -6066,10 +6076,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -6078,25 +6088,23 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6108,13 +6116,13 @@
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -6134,19 +6142,17 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6158,13 +6164,13 @@
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -6184,19 +6190,17 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6208,13 +6212,13 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -6234,19 +6238,17 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -6258,13 +6260,13 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -6284,25 +6286,23 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8">
@@ -6310,13 +6310,13 @@
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="6" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -6331,22 +6331,22 @@
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6358,13 +6358,13 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -6384,19 +6384,17 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -6408,13 +6406,13 @@
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -6434,19 +6432,17 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -6458,13 +6454,13 @@
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -6582,19 +6578,19 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>21</v>
@@ -6608,13 +6604,13 @@
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -6660,7 +6656,7 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="6"/>
     </row>
@@ -6781,10 +6777,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -6798,20 +6794,20 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6823,13 +6819,13 @@
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -6849,20 +6845,20 @@
       <c r="AE4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6874,13 +6870,13 @@
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -6900,20 +6896,20 @@
       <c r="AE5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6925,13 +6921,13 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -6951,20 +6947,20 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -6976,13 +6972,13 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -7002,319 +6998,333 @@
       <c r="AE7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="E8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="D9" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="D10" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="D11" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="D12" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="D13" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AE144">
